--- a/kittyserver/gametools/parseExcelTool/Excel/OrderGoods.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/OrderGoods.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,22 @@
   <si>
     <t>时间(分钟）</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草莓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -614,13 +630,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -798,22 +814,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="7">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D8" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -821,22 +837,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="7">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F9" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -844,22 +860,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="7">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E10" s="11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F10" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G10" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -867,22 +883,22 @@
         <v>5</v>
       </c>
       <c r="B11" s="7">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="10">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E11" s="11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F11" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -890,22 +906,22 @@
         <v>6</v>
       </c>
       <c r="B12" s="7">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D12" s="10">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E12" s="11">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F12" s="10">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G12" s="10">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -913,22 +929,22 @@
         <v>7</v>
       </c>
       <c r="B13" s="7">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="10">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E13" s="11">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F13" s="10">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G13" s="10">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -936,22 +952,22 @@
         <v>8</v>
       </c>
       <c r="B14" s="7">
-        <v>2027</v>
+        <v>2018</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="10">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E14" s="11">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F14" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" s="10">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -959,22 +975,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="7">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D15" s="10">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E15" s="11">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="F15" s="10">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G15" s="10">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -982,22 +998,22 @@
         <v>10</v>
       </c>
       <c r="B16" s="7">
-        <v>2036</v>
+        <v>2023</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D16" s="10">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E16" s="11">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F16" s="10">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G16" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1005,22 +1021,22 @@
         <v>11</v>
       </c>
       <c r="B17" s="7">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D17" s="10">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E17" s="11">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="F17" s="10">
+        <v>15</v>
+      </c>
+      <c r="G17" s="10">
         <v>14</v>
-      </c>
-      <c r="G17" s="10">
-        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1028,22 +1044,22 @@
         <v>12</v>
       </c>
       <c r="B18" s="7">
-        <v>2048</v>
+        <v>2027</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D18" s="10">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E18" s="11">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="F18" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="10">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1051,22 +1067,22 @@
         <v>13</v>
       </c>
       <c r="B19" s="7">
-        <v>2052</v>
+        <v>2032</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D19" s="10">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E19" s="11">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F19" s="10">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G19" s="10">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1074,22 +1090,22 @@
         <v>14</v>
       </c>
       <c r="B20" s="7">
-        <v>2058</v>
+        <v>2036</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="10">
+        <v>24</v>
+      </c>
+      <c r="E20" s="11">
+        <v>90</v>
+      </c>
+      <c r="F20" s="10">
         <v>31</v>
       </c>
-      <c r="D20" s="10">
-        <v>35</v>
-      </c>
-      <c r="E20" s="11">
-        <v>120</v>
-      </c>
-      <c r="F20" s="10">
-        <v>42</v>
-      </c>
       <c r="G20" s="10">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1097,22 +1113,22 @@
         <v>15</v>
       </c>
       <c r="B21" s="7">
-        <v>2067</v>
+        <v>2041</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D21" s="10">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E21" s="11">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="F21" s="10">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G21" s="10">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1120,21 +1136,113 @@
         <v>16</v>
       </c>
       <c r="B22" s="7">
+        <v>2048</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="10">
+        <v>29</v>
+      </c>
+      <c r="E22" s="11">
+        <v>150</v>
+      </c>
+      <c r="F22" s="10">
+        <v>13</v>
+      </c>
+      <c r="G22" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7">
+        <v>2052</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="10">
+        <v>32</v>
+      </c>
+      <c r="E23" s="11">
+        <v>60</v>
+      </c>
+      <c r="F23" s="10">
+        <v>7</v>
+      </c>
+      <c r="G23" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7">
+        <v>2058</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="10">
+        <v>35</v>
+      </c>
+      <c r="E24" s="11">
+        <v>120</v>
+      </c>
+      <c r="F24" s="10">
+        <v>42</v>
+      </c>
+      <c r="G24" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2067</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="10">
+        <v>38</v>
+      </c>
+      <c r="E25" s="11">
+        <v>180</v>
+      </c>
+      <c r="F25" s="10">
+        <v>61</v>
+      </c>
+      <c r="G25" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7">
         <v>2075</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D26" s="10">
         <v>43</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E26" s="11">
         <v>360</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F26" s="10">
         <v>76</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G26" s="10">
         <v>58</v>
       </c>
     </row>
